--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6920"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="template_file_format" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>code</t>
   </si>
@@ -41,6 +41,24 @@
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
     <t>txt</t>
   </si>
   <si>
@@ -50,6 +68,15 @@
     <t>eng</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>xml</t>
   </si>
   <si>
@@ -68,13 +95,22 @@
     <t>html file</t>
   </si>
   <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
     <t>hin</t>
   </si>
   <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>fra</t>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>es</t>
   </si>
 </sst>
 </file>
@@ -87,19 +123,13 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -566,144 +596,143 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,15 +1266,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,245 +1287,667 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45517.3845825195</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
